--- a/Xenon_flash_synchronizer/Project Outputs for Xenon_flash_synchronizer/ГИДР.123456.003-01.01/Документация/ГИДР.123456.003-01.01 ПЭ3.xlsx
+++ b/Xenon_flash_synchronizer/Project Outputs for Xenon_flash_synchronizer/ГИДР.123456.003-01.01/Документация/ГИДР.123456.003-01.01 ПЭ3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\TempReleases\Snapshot\3\Assembly 01\Документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FCBA1BC-5991-49C7-902C-ABB4C428334F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B59F99-32F4-4C77-8859-B8706D8BAEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{9F4B4D22-59A4-4B17-A107-7B748113AE41}"/>
+    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{E45536CB-34FE-4B37-B54E-44E4D735ECC3}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.003-01.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A7E41C-D473-46C7-8951-205400536E7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBA690C-FF1F-4A0C-B681-77D49A5AE822}">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Xenon_flash_synchronizer/Project Outputs for Xenon_flash_synchronizer/ГИДР.123456.003-01.01/Документация/ГИДР.123456.003-01.01 ПЭ3.xlsx
+++ b/Xenon_flash_synchronizer/Project Outputs for Xenon_flash_synchronizer/ГИДР.123456.003-01.01/Документация/ГИДР.123456.003-01.01 ПЭ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B59F99-32F4-4C77-8859-B8706D8BAEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49FAC5F0-77CA-48DC-8B0D-31C13D10D17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{E45536CB-34FE-4B37-B54E-44E4D735ECC3}"/>
+    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{D4527A29-20CB-440F-93DE-C844829318E6}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.003-01.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DBA690C-FF1F-4A0C-B681-77D49A5AE822}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625B05D1-79AD-4978-A6B8-B85637769B2E}">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Xenon_flash_synchronizer/Project Outputs for Xenon_flash_synchronizer/ГИДР.123456.003-01.01/Документация/ГИДР.123456.003-01.01 ПЭ3.xlsx
+++ b/Xenon_flash_synchronizer/Project Outputs for Xenon_flash_synchronizer/ГИДР.123456.003-01.01/Документация/ГИДР.123456.003-01.01 ПЭ3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49FAC5F0-77CA-48DC-8B0D-31C13D10D17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8117550F-9F9F-4324-AAF4-5464A6F71E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{D4527A29-20CB-440F-93DE-C844829318E6}"/>
+    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{219F8D51-98B7-4190-91D3-FA379368236D}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.003-01.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625B05D1-79AD-4978-A6B8-B85637769B2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFED5577-E495-45D8-B25F-192F952EBC9A}">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Xenon_flash_synchronizer/Project Outputs for Xenon_flash_synchronizer/ГИДР.123456.003-01.01/Документация/ГИДР.123456.003-01.01 ПЭ3.xlsx
+++ b/Xenon_flash_synchronizer/Project Outputs for Xenon_flash_synchronizer/ГИДР.123456.003-01.01/Документация/ГИДР.123456.003-01.01 ПЭ3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shustrik\AppData\Local\TempReleases\Snapshot\1\Assembly 01\Документация\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8117550F-9F9F-4324-AAF4-5464A6F71E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA7F86EB-36E9-4691-B075-2730EE89D583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3257" yWindow="3257" windowWidth="29220" windowHeight="13252" xr2:uid="{219F8D51-98B7-4190-91D3-FA379368236D}"/>
+    <workbookView xWindow="2820" yWindow="3270" windowWidth="21600" windowHeight="11385" xr2:uid="{ADDB2C4C-F42E-4237-B86C-2148222A214D}"/>
   </bookViews>
   <sheets>
     <sheet name="ГИДР.123456.003-01.01 ПЭ3" sheetId="1" r:id="rId1"/>
@@ -614,28 +614,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFED5577-E495-45D8-B25F-192F952EBC9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7D86BA-8AC9-4A78-B336-576C69D25744}">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.4609375" customWidth="1"/>
-    <col min="2" max="2" width="20.84375" customWidth="1"/>
-    <col min="3" max="3" width="15.61328125" customWidth="1"/>
-    <col min="4" max="4" width="12.4609375" customWidth="1"/>
-    <col min="5" max="5" width="10.23046875" customWidth="1"/>
-    <col min="6" max="6" width="15.15234375" customWidth="1"/>
-    <col min="7" max="7" width="24.765625" customWidth="1"/>
-    <col min="8" max="8" width="21.765625" customWidth="1"/>
-    <col min="9" max="9" width="11.3046875" customWidth="1"/>
-    <col min="10" max="10" width="20.84375" customWidth="1"/>
-    <col min="11" max="11" width="18.765625" customWidth="1"/>
-    <col min="12" max="12" width="17.69140625" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -673,7 +673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -721,7 +721,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -745,7 +745,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -769,7 +769,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -793,7 +793,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -817,7 +817,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -841,7 +841,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -865,7 +865,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -985,7 +985,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -1009,7 +1009,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -1033,7 +1033,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1081,7 +1081,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1129,7 +1129,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1153,7 +1153,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -1179,6 +1179,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>